--- a/formulieren/06000.xlsx
+++ b/formulieren/06000.xlsx
@@ -613,7 +613,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -638,49 +638,43 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P357</v>
+      </c>
+      <c r="H1" t="str">
         <v>P302</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P306</v>
       </c>
       <c r="I1" t="str">
         <v>P352</v>
       </c>
       <c r="J1" t="str">
-        <v>P315</v>
+        <v>P368</v>
       </c>
       <c r="K1" t="str">
         <v>P353</v>
       </c>
       <c r="L1" t="str">
-        <v>P357</v>
+        <v>P376</v>
       </c>
       <c r="M1" t="str">
-        <v>P368</v>
+        <v>P375</v>
       </c>
       <c r="N1" t="str">
-        <v>P375</v>
+        <v>06020</v>
       </c>
       <c r="O1" t="str">
-        <v>P376</v>
+        <v>06035</v>
       </c>
       <c r="P1" t="str">
+        <v>06070</v>
+      </c>
+      <c r="Q1" t="str">
         <v>P382</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>06020</v>
       </c>
       <c r="R1" t="str">
         <v>P383</v>
       </c>
       <c r="S1" t="str">
-        <v>06070</v>
-      </c>
-      <c r="T1" t="str">
         <v>06100</v>
-      </c>
-      <c r="U1" t="str">
-        <v>06035</v>
       </c>
     </row>
     <row r="2">
@@ -724,27 +718,21 @@
         <v/>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="Q2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="R2" t="str">
         <v/>
       </c>
       <c r="S2" t="str">
-        <v>x</v>
-      </c>
-      <c r="T2" t="str">
-        <v>x</v>
-      </c>
-      <c r="U2" t="str">
         <v>x</v>
       </c>
     </row>
@@ -789,27 +777,21 @@
         <v/>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="Q3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="R3" t="str">
         <v/>
       </c>
       <c r="S3" t="str">
-        <v>x</v>
-      </c>
-      <c r="T3" t="str">
-        <v>x</v>
-      </c>
-      <c r="U3" t="str">
         <v>x</v>
       </c>
     </row>
@@ -842,7 +824,7 @@
         <v/>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -851,7 +833,7 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -869,12 +851,6 @@
         <v/>
       </c>
       <c r="S4" t="str">
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
         <v/>
       </c>
     </row>
@@ -907,7 +883,7 @@
         <v/>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -916,7 +892,7 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N5" t="str">
         <v/>
@@ -934,12 +910,6 @@
         <v/>
       </c>
       <c r="S5" t="str">
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <v/>
-      </c>
-      <c r="U5" t="str">
         <v/>
       </c>
     </row>
@@ -972,7 +942,7 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -981,7 +951,7 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -999,12 +969,6 @@
         <v/>
       </c>
       <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <v/>
-      </c>
-      <c r="U6" t="str">
         <v/>
       </c>
     </row>
@@ -1025,7 +989,7 @@
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>02 Soort verzekering          10142</v>
+        <v>02 Soort verzekering             10142</v>
       </c>
       <c r="G7" t="str">
         <v>x</v>
@@ -1049,27 +1013,21 @@
         <v>x</v>
       </c>
       <c r="N7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q7" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R7" t="str">
         <v>x</v>
       </c>
       <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
         <v/>
       </c>
     </row>
@@ -1114,27 +1072,21 @@
         <v>x</v>
       </c>
       <c r="N8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q8" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R8" t="str">
         <v>x</v>
       </c>
       <c r="S8" t="str">
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <v/>
-      </c>
-      <c r="U8" t="str">
         <v/>
       </c>
     </row>
@@ -1155,7 +1107,7 @@
         <v/>
       </c>
       <c r="F9" t="str">
-        <v>03 Gezinssamenstelling        10694</v>
+        <v>03 Gezinssamenstelling           10694</v>
       </c>
       <c r="G9" t="str">
         <v>x</v>
@@ -1179,27 +1131,21 @@
         <v>x</v>
       </c>
       <c r="N9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q9" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R9" t="str">
         <v>x</v>
       </c>
       <c r="S9" t="str">
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <v/>
-      </c>
-      <c r="U9" t="str">
         <v/>
       </c>
     </row>
@@ -1244,36 +1190,30 @@
         <v>x</v>
       </c>
       <c r="N10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R10" t="str">
         <v>x</v>
       </c>
       <c r="S10" t="str">
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <v/>
-      </c>
-      <c r="U10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Aantal jagers</v>
+        <v>Betaalde klussen</v>
       </c>
       <c r="B11" t="str">
-        <v>12354</v>
+        <v>84196</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -1285,7 +1225,7 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <v>04 Aantal jagers            12354</v>
+        <v>04 Betaalde klussen         84196</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -1297,16 +1237,16 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K11" t="str">
         <v/>
       </c>
       <c r="L11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -1324,12 +1264,6 @@
         <v/>
       </c>
       <c r="S11" t="str">
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <v/>
-      </c>
-      <c r="U11" t="str">
         <v/>
       </c>
     </row>
@@ -1338,10 +1272,10 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>12354</v>
+        <v>84196</v>
       </c>
       <c r="C12" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v>Omschrijving</v>
       </c>
       <c r="D12" t="str">
         <v>Links</v>
@@ -1362,16 +1296,16 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <v/>
       </c>
       <c r="L12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N12" t="str">
         <v/>
@@ -1389,21 +1323,15 @@
         <v/>
       </c>
       <c r="S12" t="str">
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <v/>
-      </c>
-      <c r="U12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Betaalde klussen</v>
+        <v>Eigen risico</v>
       </c>
       <c r="B13" t="str">
-        <v>84196</v>
+        <v>€ 10043  10044</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -1415,7 +1343,7 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <v>04 Betaalde klussen         84196</v>
+        <v>04 Eigen risico             € 10043  10044</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -1424,13 +1352,13 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L13" t="str">
         <v/>
@@ -1439,27 +1367,21 @@
         <v/>
       </c>
       <c r="N13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <v/>
       </c>
       <c r="Q13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R13" t="str">
         <v/>
       </c>
       <c r="S13" t="str">
-        <v/>
-      </c>
-      <c r="T13" t="str">
-        <v/>
-      </c>
-      <c r="U13" t="str">
         <v/>
       </c>
     </row>
@@ -1468,10 +1390,10 @@
         <v/>
       </c>
       <c r="B14" t="str">
-        <v>84196</v>
+        <v>10043</v>
       </c>
       <c r="C14" t="str">
-        <v>Omschrijving</v>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D14" t="str">
         <v>Links</v>
@@ -1489,13 +1411,13 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L14" t="str">
         <v/>
@@ -1504,48 +1426,42 @@
         <v/>
       </c>
       <c r="N14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P14" t="str">
         <v/>
       </c>
       <c r="Q14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R14" t="str">
         <v/>
       </c>
       <c r="S14" t="str">
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <v/>
-      </c>
-      <c r="U14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B15" t="str">
-        <v>€ 10043  10044</v>
+        <v>10044</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F15" t="str">
-        <v>04 Eigen risico             € 10043  10044</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -1557,7 +1473,7 @@
         <v>x</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K15" t="str">
         <v>x</v>
@@ -1566,7 +1482,7 @@
         <v/>
       </c>
       <c r="M15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N15" t="str">
         <v/>
@@ -1575,63 +1491,57 @@
         <v/>
       </c>
       <c r="P15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R15" t="str">
         <v/>
       </c>
       <c r="S15" t="str">
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <v/>
-      </c>
-      <c r="U15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>Meeverzekerd sterdekking</v>
       </c>
       <c r="B16" t="str">
-        <v>10043</v>
+        <v>11500</v>
       </c>
       <c r="C16" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v>04 Meeverzekerd sterdekking   11500</v>
       </c>
       <c r="G16" t="str">
         <v/>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J16" t="str">
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L16" t="str">
         <v/>
       </c>
       <c r="M16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N16" t="str">
         <v/>
@@ -1640,21 +1550,15 @@
         <v/>
       </c>
       <c r="P16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q16" t="str">
         <v/>
       </c>
       <c r="R16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="S16" t="str">
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <v/>
-      </c>
-      <c r="U16" t="str">
         <v/>
       </c>
     </row>
@@ -1663,16 +1567,16 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>10044</v>
+        <v>11500</v>
       </c>
       <c r="C17" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <v>Links</v>
       </c>
       <c r="E17" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -1681,22 +1585,22 @@
         <v/>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L17" t="str">
         <v/>
       </c>
       <c r="M17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1705,30 +1609,24 @@
         <v/>
       </c>
       <c r="P17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q17" t="str">
         <v/>
       </c>
       <c r="R17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <v/>
-      </c>
-      <c r="U17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Meeverzekerd hobbyboer</v>
+        <v>Verhaalsbijstand meeverzekerd</v>
       </c>
       <c r="B18" t="str">
-        <v>12429</v>
+        <v>11646</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -1740,13 +1638,13 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <v>04 Meeverzekerd hobbyboer   12429</v>
+        <v>04 Verhaalsbijstand meeverzekerd 11646</v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1779,12 +1677,6 @@
         <v/>
       </c>
       <c r="S18" t="str">
-        <v/>
-      </c>
-      <c r="T18" t="str">
-        <v/>
-      </c>
-      <c r="U18" t="str">
         <v/>
       </c>
     </row>
@@ -1793,7 +1685,7 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>12429</v>
+        <v>11646</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -1808,10 +1700,10 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1844,21 +1736,15 @@
         <v/>
       </c>
       <c r="S19" t="str">
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <v/>
-      </c>
-      <c r="U19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Meeverzekerd sterdekking</v>
+        <v>Meeverzekerd jagersrisico</v>
       </c>
       <c r="B20" t="str">
-        <v>11500</v>
+        <v>10210</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -1870,10 +1756,10 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <v>04 Meeverzekerd sterdekking   11500</v>
+        <v>05 Meeverzekerd jagersrisico10210</v>
       </c>
       <c r="G20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1885,7 +1771,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L20" t="str">
         <v/>
@@ -1903,18 +1789,12 @@
         <v/>
       </c>
       <c r="Q20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="S20" t="str">
-        <v/>
-      </c>
-      <c r="T20" t="str">
-        <v/>
-      </c>
-      <c r="U20" t="str">
         <v/>
       </c>
     </row>
@@ -1923,7 +1803,7 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>11500</v>
+        <v>10210</v>
       </c>
       <c r="C21" t="str">
         <v/>
@@ -1938,7 +1818,7 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1950,7 +1830,7 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L21" t="str">
         <v/>
@@ -1968,24 +1848,18 @@
         <v/>
       </c>
       <c r="Q21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="S21" t="str">
-        <v/>
-      </c>
-      <c r="T21" t="str">
-        <v/>
-      </c>
-      <c r="U21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Verhaalsbijstand meeverzekerd</v>
+        <v>Meeverzekerd verhaalsbijstand</v>
       </c>
       <c r="B22" t="str">
         <v>11646</v>
@@ -2000,13 +1874,13 @@
         <v/>
       </c>
       <c r="F22" t="str">
-        <v>04 Verhaalsbijstand meeverzekerd 11646</v>
+        <v>05 Meeverzekerd verhaalsbijstand 11646</v>
       </c>
       <c r="G22" t="str">
         <v/>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -2018,7 +1892,7 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M22" t="str">
         <v/>
@@ -2036,15 +1910,9 @@
         <v/>
       </c>
       <c r="R22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="S22" t="str">
-        <v/>
-      </c>
-      <c r="T22" t="str">
-        <v/>
-      </c>
-      <c r="U22" t="str">
         <v/>
       </c>
     </row>
@@ -2071,7 +1939,7 @@
         <v/>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -2083,7 +1951,7 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M23" t="str">
         <v/>
@@ -2101,24 +1969,18 @@
         <v/>
       </c>
       <c r="R23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="S23" t="str">
-        <v/>
-      </c>
-      <c r="T23" t="str">
-        <v/>
-      </c>
-      <c r="U23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Meeverzekerd jagersrisico</v>
+        <v>Verhuur woning</v>
       </c>
       <c r="B24" t="str">
-        <v>10210</v>
+        <v>84195</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -2130,7 +1992,7 @@
         <v/>
       </c>
       <c r="F24" t="str">
-        <v>05 Meeverzekerd jagersrisico10210</v>
+        <v>05 Verhuur woning           84195</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -2145,10 +2007,10 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M24" t="str">
         <v/>
@@ -2160,7 +2022,7 @@
         <v/>
       </c>
       <c r="P24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q24" t="str">
         <v/>
@@ -2169,12 +2031,6 @@
         <v/>
       </c>
       <c r="S24" t="str">
-        <v/>
-      </c>
-      <c r="T24" t="str">
-        <v/>
-      </c>
-      <c r="U24" t="str">
         <v/>
       </c>
     </row>
@@ -2183,10 +2039,10 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>10210</v>
+        <v>84195</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D25" t="str">
         <v>Links</v>
@@ -2210,10 +2066,10 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M25" t="str">
         <v/>
@@ -2225,7 +2081,7 @@
         <v/>
       </c>
       <c r="P25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -2234,21 +2090,15 @@
         <v/>
       </c>
       <c r="S25" t="str">
-        <v/>
-      </c>
-      <c r="T25" t="str">
-        <v/>
-      </c>
-      <c r="U25" t="str">
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Meeverzekerd verhaalsbijstand</v>
+        <v>Eigen risico</v>
       </c>
       <c r="B26" t="str">
-        <v>11646</v>
+        <v>€ 10043</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -2260,13 +2110,13 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>05 Meeverzekerd verhaalsbijstand 11646</v>
+        <v>06 Eigen risico               € 10043</v>
       </c>
       <c r="G26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I26" t="str">
         <v/>
@@ -2278,10 +2128,10 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N26" t="str">
         <v/>
@@ -2299,12 +2149,6 @@
         <v>x</v>
       </c>
       <c r="S26" t="str">
-        <v/>
-      </c>
-      <c r="T26" t="str">
-        <v/>
-      </c>
-      <c r="U26" t="str">
         <v/>
       </c>
     </row>
@@ -2313,10 +2157,10 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>11646</v>
+        <v>10043</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D27" t="str">
         <v>Links</v>
@@ -2328,10 +2172,10 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I27" t="str">
         <v/>
@@ -2343,10 +2187,10 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -2364,21 +2208,15 @@
         <v>x</v>
       </c>
       <c r="S27" t="str">
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <v/>
-      </c>
-      <c r="U27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Verhuur woning</v>
+        <v>Verzekerde jagers</v>
       </c>
       <c r="B28" t="str">
-        <v>84195</v>
+        <v>Naam                    Geboortedatum     10630</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -2390,7 +2228,7 @@
         <v/>
       </c>
       <c r="F28" t="str">
-        <v>05 Verhuur woning           84195</v>
+        <v>06 Verzekerde jagers        Naam                    Geboortedatum     10630</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -2399,10 +2237,10 @@
         <v/>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K28" t="str">
         <v/>
@@ -2411,13 +2249,13 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N28" t="str">
         <v/>
       </c>
       <c r="O28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P28" t="str">
         <v/>
@@ -2429,12 +2267,6 @@
         <v/>
       </c>
       <c r="S28" t="str">
-        <v/>
-      </c>
-      <c r="T28" t="str">
-        <v/>
-      </c>
-      <c r="U28" t="str">
         <v/>
       </c>
     </row>
@@ -2443,10 +2275,10 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>84195</v>
+        <v>10630</v>
       </c>
       <c r="C29" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D29" t="str">
         <v>Links</v>
@@ -2464,10 +2296,10 @@
         <v/>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K29" t="str">
         <v/>
@@ -2476,13 +2308,13 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N29" t="str">
         <v/>
       </c>
       <c r="O29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P29" t="str">
         <v/>
@@ -2494,21 +2326,15 @@
         <v/>
       </c>
       <c r="S29" t="str">
-        <v/>
-      </c>
-      <c r="T29" t="str">
-        <v/>
-      </c>
-      <c r="U29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Eigen risico</v>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B30" t="str">
-        <v>€ 10043</v>
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -2520,7 +2346,7 @@
         <v/>
       </c>
       <c r="F30" t="str">
-        <v>06 Eigen risico               € 10043</v>
+        <v>06 Verzekerde rubrieken                             Verzekerd bedrag</v>
       </c>
       <c r="G30" t="str">
         <v>x</v>
@@ -2529,75 +2355,69 @@
         <v>x</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P30" t="str">
         <v/>
       </c>
       <c r="Q30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="R30" t="str">
         <v>x</v>
       </c>
       <c r="S30" t="str">
-        <v/>
-      </c>
-      <c r="T30" t="str">
-        <v/>
-      </c>
-      <c r="U30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B31" t="str">
-        <v>10043</v>
+        <v>10631 10632 10630                   10633</v>
       </c>
       <c r="C31" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v/>
+        <v>07                          10631 10632 10630                   10633</v>
       </c>
       <c r="G31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -2606,13 +2426,13 @@
         <v/>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P31" t="str">
         <v/>
@@ -2621,48 +2441,42 @@
         <v/>
       </c>
       <c r="R31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="S31" t="str">
-        <v/>
-      </c>
-      <c r="T31" t="str">
-        <v/>
-      </c>
-      <c r="U31" t="str">
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Eigen risico kinderschaden</v>
+        <v/>
       </c>
       <c r="B32" t="str">
-        <v>€ 11450</v>
+        <v>10631</v>
       </c>
       <c r="C32" t="str">
         <v/>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F32" t="str">
-        <v>06 Eigen risico kinderschaden  € 11450</v>
+        <v/>
       </c>
       <c r="G32" t="str">
         <v/>
       </c>
       <c r="H32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K32" t="str">
         <v/>
@@ -2671,7 +2485,7 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N32" t="str">
         <v/>
@@ -2686,15 +2500,9 @@
         <v/>
       </c>
       <c r="R32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="S32" t="str">
-        <v/>
-      </c>
-      <c r="T32" t="str">
-        <v/>
-      </c>
-      <c r="U32" t="str">
         <v/>
       </c>
     </row>
@@ -2703,16 +2511,16 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>11450</v>
+        <v>10632</v>
       </c>
       <c r="C33" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D33" t="str">
         <v>Links</v>
       </c>
       <c r="E33" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F33" t="str">
         <v/>
@@ -2721,13 +2529,13 @@
         <v/>
       </c>
       <c r="H33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -2736,7 +2544,7 @@
         <v/>
       </c>
       <c r="M33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N33" t="str">
         <v/>
@@ -2751,36 +2559,30 @@
         <v/>
       </c>
       <c r="R33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="S33" t="str">
-        <v/>
-      </c>
-      <c r="T33" t="str">
-        <v/>
-      </c>
-      <c r="U33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Eigen risico omschrijving</v>
+        <v/>
       </c>
       <c r="B34" t="str">
-        <v>10044</v>
+        <v>10630</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F34" t="str">
-        <v>06 Eigen risico omschrijving10044</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -2789,10 +2591,10 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -2801,13 +2603,13 @@
         <v/>
       </c>
       <c r="M34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P34" t="str">
         <v/>
@@ -2819,12 +2621,6 @@
         <v/>
       </c>
       <c r="S34" t="str">
-        <v/>
-      </c>
-      <c r="T34" t="str">
-        <v/>
-      </c>
-      <c r="U34" t="str">
         <v/>
       </c>
     </row>
@@ -2833,16 +2629,16 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>10044</v>
+        <v>10633</v>
       </c>
       <c r="C35" t="str">
-        <v>Omschrijving</v>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D35" t="str">
         <v>Links</v>
       </c>
       <c r="E35" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F35" t="str">
         <v/>
@@ -2854,10 +2650,10 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -2866,13 +2662,13 @@
         <v/>
       </c>
       <c r="M35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P35" t="str">
         <v/>
@@ -2884,21 +2680,15 @@
         <v/>
       </c>
       <c r="S35" t="str">
-        <v/>
-      </c>
-      <c r="T35" t="str">
-        <v/>
-      </c>
-      <c r="U35" t="str">
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Verzekerde jagers</v>
+        <v>Eigen risico kinderen/huisdieren</v>
       </c>
       <c r="B36" t="str">
-        <v>Naam                    Geboortedatum     10630</v>
+        <v>€ 11450</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -2910,16 +2700,16 @@
         <v/>
       </c>
       <c r="F36" t="str">
-        <v>06 Verzekerde jagers        Naam                    Geboortedatum     10630</v>
+        <v>07 Eigen risico kinderen/huisdieren€ 11450</v>
       </c>
       <c r="G36" t="str">
         <v/>
       </c>
       <c r="H36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -2931,10 +2721,10 @@
         <v/>
       </c>
       <c r="M36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -2949,12 +2739,6 @@
         <v/>
       </c>
       <c r="S36" t="str">
-        <v/>
-      </c>
-      <c r="T36" t="str">
-        <v/>
-      </c>
-      <c r="U36" t="str">
         <v/>
       </c>
     </row>
@@ -2963,10 +2747,10 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>10630</v>
+        <v>11450</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D37" t="str">
         <v>Links</v>
@@ -2981,10 +2765,10 @@
         <v/>
       </c>
       <c r="H37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -2996,10 +2780,10 @@
         <v/>
       </c>
       <c r="M37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O37" t="str">
         <v/>
@@ -3014,21 +2798,15 @@
         <v/>
       </c>
       <c r="S37" t="str">
-        <v/>
-      </c>
-      <c r="T37" t="str">
-        <v/>
-      </c>
-      <c r="U37" t="str">
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>n/a</v>
+        <v>Eigen risico kinderschaden</v>
       </c>
       <c r="B38" t="str">
-        <v>10631 10632 10630                   10633</v>
+        <v>€ 11450</v>
       </c>
       <c r="C38" t="str">
         <v/>
@@ -3040,7 +2818,7 @@
         <v/>
       </c>
       <c r="F38" t="str">
-        <v>07                          10631 10632 10630                   10633</v>
+        <v>07 Eigen risico kinderschaden € 11450</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -3049,7 +2827,7 @@
         <v/>
       </c>
       <c r="I38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J38" t="str">
         <v/>
@@ -3061,10 +2839,10 @@
         <v/>
       </c>
       <c r="M38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O38" t="str">
         <v/>
@@ -3076,15 +2854,9 @@
         <v/>
       </c>
       <c r="R38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="S38" t="str">
-        <v/>
-      </c>
-      <c r="T38" t="str">
-        <v/>
-      </c>
-      <c r="U38" t="str">
         <v/>
       </c>
     </row>
@@ -3093,16 +2865,16 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>10631</v>
+        <v>11450</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D39" t="str">
         <v>Links</v>
       </c>
       <c r="E39" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F39" t="str">
         <v/>
@@ -3114,7 +2886,7 @@
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J39" t="str">
         <v/>
@@ -3126,10 +2898,10 @@
         <v/>
       </c>
       <c r="M39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O39" t="str">
         <v/>
@@ -3141,36 +2913,30 @@
         <v/>
       </c>
       <c r="R39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="S39" t="str">
-        <v/>
-      </c>
-      <c r="T39" t="str">
-        <v/>
-      </c>
-      <c r="U39" t="str">
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>Eigen risico omschrijving</v>
       </c>
       <c r="B40" t="str">
-        <v>10632</v>
+        <v>10044</v>
       </c>
       <c r="C40" t="str">
         <v/>
       </c>
       <c r="D40" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v/>
+        <v>07 Eigen risico omschrijving 10044</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -3179,7 +2945,7 @@
         <v/>
       </c>
       <c r="I40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -3188,13 +2954,13 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M40" t="str">
         <v>x</v>
       </c>
       <c r="N40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O40" t="str">
         <v/>
@@ -3209,12 +2975,6 @@
         <v/>
       </c>
       <c r="S40" t="str">
-        <v/>
-      </c>
-      <c r="T40" t="str">
-        <v/>
-      </c>
-      <c r="U40" t="str">
         <v/>
       </c>
     </row>
@@ -3223,10 +2983,10 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>10630</v>
+        <v>10044</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D41" t="str">
         <v>Links</v>
@@ -3244,7 +3004,7 @@
         <v/>
       </c>
       <c r="I41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J41" t="str">
         <v/>
@@ -3253,13 +3013,13 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M41" t="str">
         <v>x</v>
       </c>
       <c r="N41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O41" t="str">
         <v/>
@@ -3274,33 +3034,27 @@
         <v/>
       </c>
       <c r="S41" t="str">
-        <v/>
-      </c>
-      <c r="T41" t="str">
-        <v/>
-      </c>
-      <c r="U41" t="str">
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B42" t="str">
-        <v>10633</v>
+        <v>10637 10638 10636                   10639</v>
       </c>
       <c r="C42" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>08                          10637 10638 10636                   10639</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -3312,7 +3066,7 @@
         <v>x</v>
       </c>
       <c r="J42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -3324,7 +3078,7 @@
         <v>x</v>
       </c>
       <c r="N42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O42" t="str">
         <v/>
@@ -3339,45 +3093,39 @@
         <v/>
       </c>
       <c r="S42" t="str">
-        <v/>
-      </c>
-      <c r="T42" t="str">
-        <v/>
-      </c>
-      <c r="U42" t="str">
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Eigen risico kinderen/huisdieren</v>
+        <v/>
       </c>
       <c r="B43" t="str">
-        <v>€ 11450</v>
+        <v>10637</v>
       </c>
       <c r="C43" t="str">
         <v/>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E43" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F43" t="str">
-        <v>07 Eigen risico kinderen/huisdieren€ 11450</v>
+        <v/>
       </c>
       <c r="G43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H43" t="str">
         <v/>
       </c>
       <c r="I43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K43" t="str">
         <v/>
@@ -3386,7 +3134,7 @@
         <v/>
       </c>
       <c r="M43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N43" t="str">
         <v/>
@@ -3404,12 +3152,6 @@
         <v/>
       </c>
       <c r="S43" t="str">
-        <v/>
-      </c>
-      <c r="T43" t="str">
-        <v/>
-      </c>
-      <c r="U43" t="str">
         <v/>
       </c>
     </row>
@@ -3418,31 +3160,31 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>11450</v>
+        <v>10638</v>
       </c>
       <c r="C44" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <v>Links</v>
       </c>
       <c r="E44" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H44" t="str">
         <v/>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K44" t="str">
         <v/>
@@ -3451,7 +3193,7 @@
         <v/>
       </c>
       <c r="M44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N44" t="str">
         <v/>
@@ -3469,33 +3211,27 @@
         <v/>
       </c>
       <c r="S44" t="str">
-        <v/>
-      </c>
-      <c r="T44" t="str">
-        <v/>
-      </c>
-      <c r="U44" t="str">
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B45" t="str">
-        <v>10637 10638 10636                   10639</v>
+        <v>10636</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F45" t="str">
-        <v>08                          10637 10638 10636                   10639</v>
+        <v/>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -3507,7 +3243,7 @@
         <v>x</v>
       </c>
       <c r="J45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K45" t="str">
         <v/>
@@ -3519,7 +3255,7 @@
         <v>x</v>
       </c>
       <c r="N45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -3534,12 +3270,6 @@
         <v/>
       </c>
       <c r="S45" t="str">
-        <v/>
-      </c>
-      <c r="T45" t="str">
-        <v/>
-      </c>
-      <c r="U45" t="str">
         <v/>
       </c>
     </row>
@@ -3548,10 +3278,10 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>10637</v>
+        <v>10639</v>
       </c>
       <c r="C46" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D46" t="str">
         <v>Links</v>
@@ -3572,7 +3302,7 @@
         <v>x</v>
       </c>
       <c r="J46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K46" t="str">
         <v/>
@@ -3584,7 +3314,7 @@
         <v>x</v>
       </c>
       <c r="N46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O46" t="str">
         <v/>
@@ -3599,33 +3329,27 @@
         <v/>
       </c>
       <c r="S46" t="str">
-        <v/>
-      </c>
-      <c r="T46" t="str">
-        <v/>
-      </c>
-      <c r="U46" t="str">
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B47" t="str">
-        <v>10638</v>
+        <v>10643 10644 10642                   10645</v>
       </c>
       <c r="C47" t="str">
         <v/>
       </c>
       <c r="D47" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>09                          10643 10644 10642                   10645</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -3637,7 +3361,7 @@
         <v>x</v>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K47" t="str">
         <v/>
@@ -3649,7 +3373,7 @@
         <v>x</v>
       </c>
       <c r="N47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O47" t="str">
         <v/>
@@ -3664,12 +3388,6 @@
         <v/>
       </c>
       <c r="S47" t="str">
-        <v/>
-      </c>
-      <c r="T47" t="str">
-        <v/>
-      </c>
-      <c r="U47" t="str">
         <v/>
       </c>
     </row>
@@ -3678,7 +3396,7 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>10636</v>
+        <v>10643</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -3687,7 +3405,7 @@
         <v>Links</v>
       </c>
       <c r="E48" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F48" t="str">
         <v/>
@@ -3702,7 +3420,7 @@
         <v>x</v>
       </c>
       <c r="J48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K48" t="str">
         <v/>
@@ -3714,7 +3432,7 @@
         <v>x</v>
       </c>
       <c r="N48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O48" t="str">
         <v/>
@@ -3729,12 +3447,6 @@
         <v/>
       </c>
       <c r="S48" t="str">
-        <v/>
-      </c>
-      <c r="T48" t="str">
-        <v/>
-      </c>
-      <c r="U48" t="str">
         <v/>
       </c>
     </row>
@@ -3743,10 +3455,10 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>10639</v>
+        <v>10644</v>
       </c>
       <c r="C49" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D49" t="str">
         <v>Links</v>
@@ -3767,7 +3479,7 @@
         <v>x</v>
       </c>
       <c r="J49" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K49" t="str">
         <v/>
@@ -3779,7 +3491,7 @@
         <v>x</v>
       </c>
       <c r="N49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O49" t="str">
         <v/>
@@ -3794,33 +3506,27 @@
         <v/>
       </c>
       <c r="S49" t="str">
-        <v/>
-      </c>
-      <c r="T49" t="str">
-        <v/>
-      </c>
-      <c r="U49" t="str">
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B50" t="str">
-        <v>10643 10644 10642                   10645</v>
+        <v>10642</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F50" t="str">
-        <v>09                          10643 10644 10642                   10645</v>
+        <v/>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -3832,7 +3538,7 @@
         <v>x</v>
       </c>
       <c r="J50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -3844,7 +3550,7 @@
         <v>x</v>
       </c>
       <c r="N50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O50" t="str">
         <v/>
@@ -3859,12 +3565,6 @@
         <v/>
       </c>
       <c r="S50" t="str">
-        <v/>
-      </c>
-      <c r="T50" t="str">
-        <v/>
-      </c>
-      <c r="U50" t="str">
         <v/>
       </c>
     </row>
@@ -3873,10 +3573,10 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>10643</v>
+        <v>10645</v>
       </c>
       <c r="C51" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D51" t="str">
         <v>Links</v>
@@ -3897,7 +3597,7 @@
         <v>x</v>
       </c>
       <c r="J51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K51" t="str">
         <v/>
@@ -3909,7 +3609,7 @@
         <v>x</v>
       </c>
       <c r="N51" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -3924,33 +3624,27 @@
         <v/>
       </c>
       <c r="S51" t="str">
-        <v/>
-      </c>
-      <c r="T51" t="str">
-        <v/>
-      </c>
-      <c r="U51" t="str">
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B52" t="str">
-        <v>10644</v>
+        <v>10630</v>
       </c>
       <c r="C52" t="str">
         <v/>
       </c>
       <c r="D52" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v/>
+        <v>10                                                                    10630</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -3962,7 +3656,7 @@
         <v>x</v>
       </c>
       <c r="J52" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -3974,7 +3668,7 @@
         <v>x</v>
       </c>
       <c r="N52" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O52" t="str">
         <v/>
@@ -3989,12 +3683,6 @@
         <v/>
       </c>
       <c r="S52" t="str">
-        <v/>
-      </c>
-      <c r="T52" t="str">
-        <v/>
-      </c>
-      <c r="U52" t="str">
         <v/>
       </c>
     </row>
@@ -4003,7 +3691,7 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <v>10642</v>
+        <v>10630</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -4027,7 +3715,7 @@
         <v>x</v>
       </c>
       <c r="J53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -4039,7 +3727,7 @@
         <v>x</v>
       </c>
       <c r="N53" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -4054,33 +3742,27 @@
         <v/>
       </c>
       <c r="S53" t="str">
-        <v/>
-      </c>
-      <c r="T53" t="str">
-        <v/>
-      </c>
-      <c r="U53" t="str">
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v/>
+        <v>Dekkingsgebied jager</v>
       </c>
       <c r="B54" t="str">
-        <v>10645</v>
+        <v>10246</v>
       </c>
       <c r="C54" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D54" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F54" t="str">
-        <v/>
+        <v>11 Dekkingsgebied jager     10246</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -4089,10 +3771,10 @@
         <v/>
       </c>
       <c r="I54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K54" t="str">
         <v/>
@@ -4101,10 +3783,10 @@
         <v/>
       </c>
       <c r="M54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O54" t="str">
         <v/>
@@ -4119,86 +3801,74 @@
         <v/>
       </c>
       <c r="S54" t="str">
-        <v/>
-      </c>
-      <c r="T54" t="str">
-        <v/>
-      </c>
-      <c r="U54" t="str">
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Verzekerde rubrieken</v>
+        <v/>
       </c>
       <c r="B55" t="str">
-        <v xml:space="preserve">                        Verzekerd bedrag</v>
+        <v>10246</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E55" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F55" t="str">
-        <v>09 Verzekerde rubrieken                             Verzekerd bedrag</v>
+        <v/>
       </c>
       <c r="G55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J55" t="str">
         <v>x</v>
       </c>
       <c r="K55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="P55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="S55" t="str">
-        <v/>
-      </c>
-      <c r="T55" t="str">
-        <v/>
-      </c>
-      <c r="U55" t="str">
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>n/a</v>
+        <v>Meeverzekerde panden</v>
       </c>
       <c r="B56" t="str">
-        <v>10630</v>
+        <v>Adres        Postcode   Woonplaats        80077</v>
       </c>
       <c r="C56" t="str">
         <v/>
@@ -4210,7 +3880,7 @@
         <v/>
       </c>
       <c r="F56" t="str">
-        <v>10                                                                    10630</v>
+        <v>11 Meeverzekerde panden     Adres        Postcode   Woonplaats        80077</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -4234,7 +3904,7 @@
         <v>x</v>
       </c>
       <c r="N56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -4249,12 +3919,6 @@
         <v/>
       </c>
       <c r="S56" t="str">
-        <v/>
-      </c>
-      <c r="T56" t="str">
-        <v/>
-      </c>
-      <c r="U56" t="str">
         <v/>
       </c>
     </row>
@@ -4263,7 +3927,7 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <v>10630</v>
+        <v>80077</v>
       </c>
       <c r="C57" t="str">
         <v/>
@@ -4299,7 +3963,7 @@
         <v>x</v>
       </c>
       <c r="N57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -4314,18 +3978,12 @@
         <v/>
       </c>
       <c r="S57" t="str">
-        <v/>
-      </c>
-      <c r="T57" t="str">
-        <v/>
-      </c>
-      <c r="U57" t="str">
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Dekkingsgebied jager</v>
+        <v>n/a</v>
       </c>
       <c r="B58" t="str">
         <v>10246</v>
@@ -4340,7 +3998,7 @@
         <v/>
       </c>
       <c r="F58" t="str">
-        <v>11 Dekkingsgebied jager     10246</v>
+        <v>12                                                                    10246</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -4352,7 +4010,7 @@
         <v/>
       </c>
       <c r="J58" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K58" t="str">
         <v/>
@@ -4361,7 +4019,7 @@
         <v/>
       </c>
       <c r="M58" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N58" t="str">
         <v/>
@@ -4379,12 +4037,6 @@
         <v/>
       </c>
       <c r="S58" t="str">
-        <v/>
-      </c>
-      <c r="T58" t="str">
-        <v/>
-      </c>
-      <c r="U58" t="str">
         <v/>
       </c>
     </row>
@@ -4417,7 +4069,7 @@
         <v/>
       </c>
       <c r="J59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K59" t="str">
         <v/>
@@ -4426,7 +4078,7 @@
         <v/>
       </c>
       <c r="M59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N59" t="str">
         <v/>
@@ -4444,21 +4096,15 @@
         <v/>
       </c>
       <c r="S59" t="str">
-        <v/>
-      </c>
-      <c r="T59" t="str">
-        <v/>
-      </c>
-      <c r="U59" t="str">
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Meeverzekerde panden</v>
+        <v>n/a</v>
       </c>
       <c r="B60" t="str">
-        <v>Adres        Postcode   Woonplaats        80077</v>
+        <v>80077 80093 86451        80082          80088</v>
       </c>
       <c r="C60" t="str">
         <v/>
@@ -4470,7 +4116,7 @@
         <v/>
       </c>
       <c r="F60" t="str">
-        <v>11 Meeverzekerde panden     Adres        Postcode   Woonplaats        80077</v>
+        <v>12                          80077 80093 86451        80082          80088</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -4491,10 +4137,10 @@
         <v/>
       </c>
       <c r="M60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O60" t="str">
         <v/>
@@ -4509,12 +4155,6 @@
         <v/>
       </c>
       <c r="S60" t="str">
-        <v/>
-      </c>
-      <c r="T60" t="str">
-        <v/>
-      </c>
-      <c r="U60" t="str">
         <v/>
       </c>
     </row>
@@ -4556,10 +4196,10 @@
         <v/>
       </c>
       <c r="M61" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O61" t="str">
         <v/>
@@ -4574,33 +4214,27 @@
         <v/>
       </c>
       <c r="S61" t="str">
-        <v/>
-      </c>
-      <c r="T61" t="str">
-        <v/>
-      </c>
-      <c r="U61" t="str">
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B62" t="str">
-        <v>10246</v>
+        <v>80093</v>
       </c>
       <c r="C62" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E62" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F62" t="str">
-        <v>12                                                                    10246</v>
+        <v/>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -4609,7 +4243,7 @@
         <v/>
       </c>
       <c r="I62" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -4639,12 +4273,6 @@
         <v/>
       </c>
       <c r="S62" t="str">
-        <v/>
-      </c>
-      <c r="T62" t="str">
-        <v/>
-      </c>
-      <c r="U62" t="str">
         <v/>
       </c>
     </row>
@@ -4653,16 +4281,16 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <v>10246</v>
+        <v>86451</v>
       </c>
       <c r="C63" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D63" t="str">
         <v>Links</v>
       </c>
       <c r="E63" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F63" t="str">
         <v/>
@@ -4674,7 +4302,7 @@
         <v/>
       </c>
       <c r="I63" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -4704,33 +4332,27 @@
         <v/>
       </c>
       <c r="S63" t="str">
-        <v/>
-      </c>
-      <c r="T63" t="str">
-        <v/>
-      </c>
-      <c r="U63" t="str">
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B64" t="str">
-        <v>80077 80093 86451        80082          80088</v>
+        <v>80082</v>
       </c>
       <c r="C64" t="str">
         <v/>
       </c>
       <c r="D64" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E64" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F64" t="str">
-        <v>12                          80077 80093 86451        80082          80088</v>
+        <v/>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -4751,10 +4373,10 @@
         <v/>
       </c>
       <c r="M64" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N64" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -4769,12 +4391,6 @@
         <v/>
       </c>
       <c r="S64" t="str">
-        <v/>
-      </c>
-      <c r="T64" t="str">
-        <v/>
-      </c>
-      <c r="U64" t="str">
         <v/>
       </c>
     </row>
@@ -4783,7 +4399,7 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v>80077</v>
+        <v>80088</v>
       </c>
       <c r="C65" t="str">
         <v/>
@@ -4792,7 +4408,7 @@
         <v>Links</v>
       </c>
       <c r="E65" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F65" t="str">
         <v/>
@@ -4816,10 +4432,10 @@
         <v/>
       </c>
       <c r="M65" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N65" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O65" t="str">
         <v/>
@@ -4834,33 +4450,27 @@
         <v/>
       </c>
       <c r="S65" t="str">
-        <v/>
-      </c>
-      <c r="T65" t="str">
-        <v/>
-      </c>
-      <c r="U65" t="str">
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B66" t="str">
-        <v>80093</v>
+        <v>80078 80094 86577        80083          80089</v>
       </c>
       <c r="C66" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D66" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E66" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F66" t="str">
-        <v/>
+        <v>13                          80078 80094 86577        80083          80089</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -4881,10 +4491,10 @@
         <v/>
       </c>
       <c r="M66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N66" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O66" t="str">
         <v/>
@@ -4899,12 +4509,6 @@
         <v/>
       </c>
       <c r="S66" t="str">
-        <v/>
-      </c>
-      <c r="T66" t="str">
-        <v/>
-      </c>
-      <c r="U66" t="str">
         <v/>
       </c>
     </row>
@@ -4913,7 +4517,7 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <v>86451</v>
+        <v>80078</v>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -4922,7 +4526,7 @@
         <v>Links</v>
       </c>
       <c r="E67" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F67" t="str">
         <v/>
@@ -4946,10 +4550,10 @@
         <v/>
       </c>
       <c r="M67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N67" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O67" t="str">
         <v/>
@@ -4964,12 +4568,6 @@
         <v/>
       </c>
       <c r="S67" t="str">
-        <v/>
-      </c>
-      <c r="T67" t="str">
-        <v/>
-      </c>
-      <c r="U67" t="str">
         <v/>
       </c>
     </row>
@@ -4978,10 +4576,10 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <v>80082</v>
+        <v>80094</v>
       </c>
       <c r="C68" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D68" t="str">
         <v>Links</v>
@@ -5011,10 +4609,10 @@
         <v/>
       </c>
       <c r="M68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N68" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -5029,12 +4627,6 @@
         <v/>
       </c>
       <c r="S68" t="str">
-        <v/>
-      </c>
-      <c r="T68" t="str">
-        <v/>
-      </c>
-      <c r="U68" t="str">
         <v/>
       </c>
     </row>
@@ -5043,7 +4635,7 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <v>80088</v>
+        <v>86577</v>
       </c>
       <c r="C69" t="str">
         <v/>
@@ -5076,10 +4668,10 @@
         <v/>
       </c>
       <c r="M69" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N69" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O69" t="str">
         <v/>
@@ -5094,33 +4686,27 @@
         <v/>
       </c>
       <c r="S69" t="str">
-        <v/>
-      </c>
-      <c r="T69" t="str">
-        <v/>
-      </c>
-      <c r="U69" t="str">
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B70" t="str">
-        <v>80078 80094 86577        80083          80089</v>
+        <v>80083</v>
       </c>
       <c r="C70" t="str">
         <v/>
       </c>
       <c r="D70" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E70" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F70" t="str">
-        <v>13                          80078 80094 86577        80083          80089</v>
+        <v/>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -5141,10 +4727,10 @@
         <v/>
       </c>
       <c r="M70" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N70" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O70" t="str">
         <v/>
@@ -5159,12 +4745,6 @@
         <v/>
       </c>
       <c r="S70" t="str">
-        <v/>
-      </c>
-      <c r="T70" t="str">
-        <v/>
-      </c>
-      <c r="U70" t="str">
         <v/>
       </c>
     </row>
@@ -5173,7 +4753,7 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <v>80078</v>
+        <v>80089</v>
       </c>
       <c r="C71" t="str">
         <v/>
@@ -5182,7 +4762,7 @@
         <v>Links</v>
       </c>
       <c r="E71" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F71" t="str">
         <v/>
@@ -5206,10 +4786,10 @@
         <v/>
       </c>
       <c r="M71" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N71" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O71" t="str">
         <v/>
@@ -5224,33 +4804,27 @@
         <v/>
       </c>
       <c r="S71" t="str">
-        <v/>
-      </c>
-      <c r="T71" t="str">
-        <v/>
-      </c>
-      <c r="U71" t="str">
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B72" t="str">
-        <v>80094</v>
+        <v>80077</v>
       </c>
       <c r="C72" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D72" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E72" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F72" t="str">
-        <v/>
+        <v>14                                                                    80077</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -5271,10 +4845,10 @@
         <v/>
       </c>
       <c r="M72" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N72" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O72" t="str">
         <v/>
@@ -5289,12 +4863,6 @@
         <v/>
       </c>
       <c r="S72" t="str">
-        <v/>
-      </c>
-      <c r="T72" t="str">
-        <v/>
-      </c>
-      <c r="U72" t="str">
         <v/>
       </c>
     </row>
@@ -5303,7 +4871,7 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <v>86577</v>
+        <v>80077</v>
       </c>
       <c r="C73" t="str">
         <v/>
@@ -5312,7 +4880,7 @@
         <v>Links</v>
       </c>
       <c r="E73" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F73" t="str">
         <v/>
@@ -5336,10 +4904,10 @@
         <v/>
       </c>
       <c r="M73" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N73" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O73" t="str">
         <v/>
@@ -5354,33 +4922,27 @@
         <v/>
       </c>
       <c r="S73" t="str">
-        <v/>
-      </c>
-      <c r="T73" t="str">
-        <v/>
-      </c>
-      <c r="U73" t="str">
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B74" t="str">
-        <v>80083</v>
+        <v>80079 80095 86578        80084          80090</v>
       </c>
       <c r="C74" t="str">
         <v/>
       </c>
       <c r="D74" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E74" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F74" t="str">
-        <v/>
+        <v>16                          80079 80095 86578        80084          80090</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -5389,7 +4951,7 @@
         <v/>
       </c>
       <c r="I74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J74" t="str">
         <v/>
@@ -5401,10 +4963,10 @@
         <v/>
       </c>
       <c r="M74" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O74" t="str">
         <v/>
@@ -5419,12 +4981,6 @@
         <v/>
       </c>
       <c r="S74" t="str">
-        <v/>
-      </c>
-      <c r="T74" t="str">
-        <v/>
-      </c>
-      <c r="U74" t="str">
         <v/>
       </c>
     </row>
@@ -5433,7 +4989,7 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <v>80089</v>
+        <v>80079</v>
       </c>
       <c r="C75" t="str">
         <v/>
@@ -5442,7 +4998,7 @@
         <v>Links</v>
       </c>
       <c r="E75" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F75" t="str">
         <v/>
@@ -5454,7 +5010,7 @@
         <v/>
       </c>
       <c r="I75" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J75" t="str">
         <v/>
@@ -5466,10 +5022,10 @@
         <v/>
       </c>
       <c r="M75" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N75" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O75" t="str">
         <v/>
@@ -5484,33 +5040,27 @@
         <v/>
       </c>
       <c r="S75" t="str">
-        <v/>
-      </c>
-      <c r="T75" t="str">
-        <v/>
-      </c>
-      <c r="U75" t="str">
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B76" t="str">
-        <v>80077</v>
+        <v>80095</v>
       </c>
       <c r="C76" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D76" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E76" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F76" t="str">
-        <v>14                                                                    80077</v>
+        <v/>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -5519,7 +5069,7 @@
         <v/>
       </c>
       <c r="I76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J76" t="str">
         <v/>
@@ -5531,10 +5081,10 @@
         <v/>
       </c>
       <c r="M76" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O76" t="str">
         <v/>
@@ -5549,12 +5099,6 @@
         <v/>
       </c>
       <c r="S76" t="str">
-        <v/>
-      </c>
-      <c r="T76" t="str">
-        <v/>
-      </c>
-      <c r="U76" t="str">
         <v/>
       </c>
     </row>
@@ -5563,7 +5107,7 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <v>80077</v>
+        <v>86578</v>
       </c>
       <c r="C77" t="str">
         <v/>
@@ -5572,7 +5116,7 @@
         <v>Links</v>
       </c>
       <c r="E77" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F77" t="str">
         <v/>
@@ -5584,7 +5128,7 @@
         <v/>
       </c>
       <c r="I77" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J77" t="str">
         <v/>
@@ -5596,10 +5140,10 @@
         <v/>
       </c>
       <c r="M77" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N77" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O77" t="str">
         <v/>
@@ -5614,33 +5158,27 @@
         <v/>
       </c>
       <c r="S77" t="str">
-        <v/>
-      </c>
-      <c r="T77" t="str">
-        <v/>
-      </c>
-      <c r="U77" t="str">
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B78" t="str">
-        <v>80079 80095 86578        80084          80090</v>
+        <v>80084</v>
       </c>
       <c r="C78" t="str">
         <v/>
       </c>
       <c r="D78" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E78" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F78" t="str">
-        <v>16                          80079 80095 86578        80084          80090</v>
+        <v/>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -5661,10 +5199,10 @@
         <v/>
       </c>
       <c r="M78" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N78" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O78" t="str">
         <v/>
@@ -5679,12 +5217,6 @@
         <v/>
       </c>
       <c r="S78" t="str">
-        <v/>
-      </c>
-      <c r="T78" t="str">
-        <v/>
-      </c>
-      <c r="U78" t="str">
         <v/>
       </c>
     </row>
@@ -5693,7 +5225,7 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <v>80079</v>
+        <v>80090</v>
       </c>
       <c r="C79" t="str">
         <v/>
@@ -5702,7 +5234,7 @@
         <v>Links</v>
       </c>
       <c r="E79" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F79" t="str">
         <v/>
@@ -5726,10 +5258,10 @@
         <v/>
       </c>
       <c r="M79" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N79" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -5744,278 +5276,12 @@
         <v/>
       </c>
       <c r="S79" t="str">
-        <v/>
-      </c>
-      <c r="T79" t="str">
-        <v/>
-      </c>
-      <c r="U79" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v/>
-      </c>
-      <c r="B80" t="str">
-        <v>80095</v>
-      </c>
-      <c r="C80" t="str">
-        <v>Getal exclusief decimalen</v>
-      </c>
-      <c r="D80" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E80" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F80" t="str">
-        <v/>
-      </c>
-      <c r="G80" t="str">
-        <v/>
-      </c>
-      <c r="H80" t="str">
-        <v/>
-      </c>
-      <c r="I80" t="str">
-        <v/>
-      </c>
-      <c r="J80" t="str">
-        <v/>
-      </c>
-      <c r="K80" t="str">
-        <v/>
-      </c>
-      <c r="L80" t="str">
-        <v/>
-      </c>
-      <c r="M80" t="str">
-        <v/>
-      </c>
-      <c r="N80" t="str">
-        <v>x</v>
-      </c>
-      <c r="O80" t="str">
-        <v/>
-      </c>
-      <c r="P80" t="str">
-        <v/>
-      </c>
-      <c r="Q80" t="str">
-        <v/>
-      </c>
-      <c r="R80" t="str">
-        <v/>
-      </c>
-      <c r="S80" t="str">
-        <v/>
-      </c>
-      <c r="T80" t="str">
-        <v/>
-      </c>
-      <c r="U80" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v/>
-      </c>
-      <c r="B81" t="str">
-        <v>86578</v>
-      </c>
-      <c r="C81" t="str">
-        <v/>
-      </c>
-      <c r="D81" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E81" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F81" t="str">
-        <v/>
-      </c>
-      <c r="G81" t="str">
-        <v/>
-      </c>
-      <c r="H81" t="str">
-        <v/>
-      </c>
-      <c r="I81" t="str">
-        <v/>
-      </c>
-      <c r="J81" t="str">
-        <v/>
-      </c>
-      <c r="K81" t="str">
-        <v/>
-      </c>
-      <c r="L81" t="str">
-        <v/>
-      </c>
-      <c r="M81" t="str">
-        <v/>
-      </c>
-      <c r="N81" t="str">
-        <v>x</v>
-      </c>
-      <c r="O81" t="str">
-        <v/>
-      </c>
-      <c r="P81" t="str">
-        <v/>
-      </c>
-      <c r="Q81" t="str">
-        <v/>
-      </c>
-      <c r="R81" t="str">
-        <v/>
-      </c>
-      <c r="S81" t="str">
-        <v/>
-      </c>
-      <c r="T81" t="str">
-        <v/>
-      </c>
-      <c r="U81" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v/>
-      </c>
-      <c r="B82" t="str">
-        <v>80084</v>
-      </c>
-      <c r="C82" t="str">
-        <v/>
-      </c>
-      <c r="D82" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E82" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F82" t="str">
-        <v/>
-      </c>
-      <c r="G82" t="str">
-        <v/>
-      </c>
-      <c r="H82" t="str">
-        <v/>
-      </c>
-      <c r="I82" t="str">
-        <v/>
-      </c>
-      <c r="J82" t="str">
-        <v/>
-      </c>
-      <c r="K82" t="str">
-        <v/>
-      </c>
-      <c r="L82" t="str">
-        <v/>
-      </c>
-      <c r="M82" t="str">
-        <v/>
-      </c>
-      <c r="N82" t="str">
-        <v>x</v>
-      </c>
-      <c r="O82" t="str">
-        <v/>
-      </c>
-      <c r="P82" t="str">
-        <v/>
-      </c>
-      <c r="Q82" t="str">
-        <v/>
-      </c>
-      <c r="R82" t="str">
-        <v/>
-      </c>
-      <c r="S82" t="str">
-        <v/>
-      </c>
-      <c r="T82" t="str">
-        <v/>
-      </c>
-      <c r="U82" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v/>
-      </c>
-      <c r="B83" t="str">
-        <v>80090</v>
-      </c>
-      <c r="C83" t="str">
-        <v/>
-      </c>
-      <c r="D83" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E83" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F83" t="str">
-        <v/>
-      </c>
-      <c r="G83" t="str">
-        <v/>
-      </c>
-      <c r="H83" t="str">
-        <v/>
-      </c>
-      <c r="I83" t="str">
-        <v/>
-      </c>
-      <c r="J83" t="str">
-        <v/>
-      </c>
-      <c r="K83" t="str">
-        <v/>
-      </c>
-      <c r="L83" t="str">
-        <v/>
-      </c>
-      <c r="M83" t="str">
-        <v/>
-      </c>
-      <c r="N83" t="str">
-        <v>x</v>
-      </c>
-      <c r="O83" t="str">
-        <v/>
-      </c>
-      <c r="P83" t="str">
-        <v/>
-      </c>
-      <c r="Q83" t="str">
-        <v/>
-      </c>
-      <c r="R83" t="str">
-        <v/>
-      </c>
-      <c r="S83" t="str">
-        <v/>
-      </c>
-      <c r="T83" t="str">
-        <v/>
-      </c>
-      <c r="U83" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S79"/>
   </ignoredErrors>
 </worksheet>
 </file>
